--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Kremen2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,51 +534,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H2">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5677883333333335</v>
+        <v>0.63164</v>
       </c>
       <c r="N2">
-        <v>1.703365</v>
+        <v>1.89492</v>
       </c>
       <c r="O2">
-        <v>0.7043960942720843</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7043960942720843</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.023559241315</v>
+        <v>0.1114404557466667</v>
       </c>
       <c r="R2">
-        <v>0.212033171835</v>
+        <v>1.00296410172</v>
       </c>
       <c r="S2">
-        <v>0.007803989623243574</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="T2">
-        <v>0.007803989623243576</v>
+        <v>0.04559680146739255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.041493</v>
+        <v>3.631843333333334</v>
       </c>
       <c r="H3">
-        <v>0.124479</v>
+        <v>10.89553</v>
       </c>
       <c r="I3">
-        <v>0.01107897912368202</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J3">
-        <v>0.01107897912368202</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.165579</v>
+        <v>0.63164</v>
       </c>
       <c r="N3">
-        <v>0.496737</v>
+        <v>1.89492</v>
       </c>
       <c r="O3">
-        <v>0.2054166914785922</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.2054166914785922</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.006870369446999999</v>
+        <v>2.294017523066667</v>
       </c>
       <c r="R3">
-        <v>0.06183332502299999</v>
+        <v>20.6461577076</v>
       </c>
       <c r="S3">
-        <v>0.002275807236547154</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="T3">
-        <v>0.002275807236547155</v>
+        <v>0.9386165989824495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -661,418 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.041493</v>
+        <v>0.061084</v>
       </c>
       <c r="H4">
-        <v>0.124479</v>
+        <v>0.183252</v>
       </c>
       <c r="I4">
-        <v>0.01107897912368202</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J4">
-        <v>0.01107897912368202</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07269666666666667</v>
+        <v>0.63164</v>
       </c>
       <c r="N4">
-        <v>0.21809</v>
+        <v>1.89492</v>
       </c>
       <c r="O4">
-        <v>0.09018721424932345</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.09018721424932345</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.00301640279</v>
+        <v>0.03858309776</v>
       </c>
       <c r="R4">
-        <v>0.02714762511</v>
+        <v>0.34724787984</v>
       </c>
       <c r="S4">
-        <v>0.0009991822638912922</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="T4">
-        <v>0.0009991822638912924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.631843333333334</v>
-      </c>
-      <c r="H5">
-        <v>10.89553</v>
-      </c>
-      <c r="I5">
-        <v>0.9697326409390435</v>
-      </c>
-      <c r="J5">
-        <v>0.9697326409390437</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.5677883333333335</v>
-      </c>
-      <c r="N5">
-        <v>1.703365</v>
-      </c>
-      <c r="O5">
-        <v>0.7043960942720843</v>
-      </c>
-      <c r="P5">
-        <v>0.7043960942720843</v>
-      </c>
-      <c r="Q5">
-        <v>2.062118273161112</v>
-      </c>
-      <c r="R5">
-        <v>18.55906445845</v>
-      </c>
-      <c r="S5">
-        <v>0.6830758847656158</v>
-      </c>
-      <c r="T5">
-        <v>0.6830758847656159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.631843333333334</v>
-      </c>
-      <c r="H6">
-        <v>10.89553</v>
-      </c>
-      <c r="I6">
-        <v>0.9697326409390435</v>
-      </c>
-      <c r="J6">
-        <v>0.9697326409390437</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.165579</v>
-      </c>
-      <c r="N6">
-        <v>0.496737</v>
-      </c>
-      <c r="O6">
-        <v>0.2054166914785922</v>
-      </c>
-      <c r="P6">
-        <v>0.2054166914785922</v>
-      </c>
-      <c r="Q6">
-        <v>0.6013569872900001</v>
-      </c>
-      <c r="R6">
-        <v>5.41221288561</v>
-      </c>
-      <c r="S6">
-        <v>0.199199270720496</v>
-      </c>
-      <c r="T6">
-        <v>0.199199270720496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.631843333333334</v>
-      </c>
-      <c r="H7">
-        <v>10.89553</v>
-      </c>
-      <c r="I7">
-        <v>0.9697326409390435</v>
-      </c>
-      <c r="J7">
-        <v>0.9697326409390437</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.07269666666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.21809</v>
-      </c>
-      <c r="O7">
-        <v>0.09018721424932345</v>
-      </c>
-      <c r="P7">
-        <v>0.09018721424932345</v>
-      </c>
-      <c r="Q7">
-        <v>0.264022904188889</v>
-      </c>
-      <c r="R7">
-        <v>2.3762061377</v>
-      </c>
-      <c r="S7">
-        <v>0.08745748545293178</v>
-      </c>
-      <c r="T7">
-        <v>0.08745748545293178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.07186433333333332</v>
-      </c>
-      <c r="H8">
-        <v>0.215593</v>
-      </c>
-      <c r="I8">
-        <v>0.01918837993727438</v>
-      </c>
-      <c r="J8">
-        <v>0.01918837993727439</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.5677883333333335</v>
-      </c>
-      <c r="N8">
-        <v>1.703365</v>
-      </c>
-      <c r="O8">
-        <v>0.7043960942720843</v>
-      </c>
-      <c r="P8">
-        <v>0.7043960942720843</v>
-      </c>
-      <c r="Q8">
-        <v>0.04080373004944444</v>
-      </c>
-      <c r="R8">
-        <v>0.367233570445</v>
-      </c>
-      <c r="S8">
-        <v>0.0135162198832249</v>
-      </c>
-      <c r="T8">
-        <v>0.0135162198832249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.07186433333333332</v>
-      </c>
-      <c r="H9">
-        <v>0.215593</v>
-      </c>
-      <c r="I9">
-        <v>0.01918837993727438</v>
-      </c>
-      <c r="J9">
-        <v>0.01918837993727439</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.165579</v>
-      </c>
-      <c r="N9">
-        <v>0.496737</v>
-      </c>
-      <c r="O9">
-        <v>0.2054166914785922</v>
-      </c>
-      <c r="P9">
-        <v>0.2054166914785922</v>
-      </c>
-      <c r="Q9">
-        <v>0.011899224449</v>
-      </c>
-      <c r="R9">
-        <v>0.107093020041</v>
-      </c>
-      <c r="S9">
-        <v>0.003941613521549101</v>
-      </c>
-      <c r="T9">
-        <v>0.003941613521549102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.07186433333333332</v>
-      </c>
-      <c r="H10">
-        <v>0.215593</v>
-      </c>
-      <c r="I10">
-        <v>0.01918837993727438</v>
-      </c>
-      <c r="J10">
-        <v>0.01918837993727439</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.07269666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.21809</v>
-      </c>
-      <c r="O10">
-        <v>0.09018721424932345</v>
-      </c>
-      <c r="P10">
-        <v>0.09018721424932345</v>
-      </c>
-      <c r="Q10">
-        <v>0.005224297485555555</v>
-      </c>
-      <c r="R10">
-        <v>0.04701867737</v>
-      </c>
-      <c r="S10">
-        <v>0.001730546532500384</v>
-      </c>
-      <c r="T10">
-        <v>0.001730546532500385</v>
+        <v>0.01578659955015789</v>
       </c>
     </row>
   </sheetData>
